--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840278.5405000513</v>
+        <v>835756.3582699009</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7422292.90343294</v>
+        <v>7422292.903432945</v>
       </c>
     </row>
     <row r="9">
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H11" t="n">
-        <v>78.88988900346685</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>58.7372692669303</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>114.0281835581099</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>104.5860430505401</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38.91184599296614</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I13" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.104997571370177</v>
+        <v>7.104997571370184</v>
       </c>
       <c r="S13" t="n">
         <v>153.1383045355418</v>
@@ -1587,7 +1587,7 @@
         <v>277.3347311118176</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>267.3650750371733</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>255.6148311530628</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>62.59810729911509</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>153.3167732005816</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>31.50220097417949</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.7167301225565</v>
@@ -1785,7 +1785,7 @@
         <v>134.5550226373062</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>7.104997571370177</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T16" t="n">
         <v>237.1559102373387</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3347311118176</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>349.1580676280395</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.3390573303334</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>207.6188612297837</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>58.7372692669303</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7167301225565</v>
       </c>
       <c r="H19" t="n">
-        <v>7.554717374755375</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I19" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.104997571370177</v>
+        <v>7.104997571370184</v>
       </c>
       <c r="S19" t="n">
         <v>153.1383045355418</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U19" t="n">
         <v>277.3347311118176</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>111.0124694111687</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3390573303334</v>
+        <v>83.66822839660418</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>210.1512354641813</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>272.3044503593228</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>12.19920641651291</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1559102373387</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>250.5753655864941</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>68.56458786922886</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>96.94190197465311</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90.97222777358779</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>20.65875775520109</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>153.1383045355418</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U25" t="n">
         <v>277.3347311118176</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>284.3885341879003</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>58.7372692669303</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>300.8013058990036</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.281357713389785</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>17.95510802424052</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>277.3347311118176</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T29" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>234.9657866925522</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>76.61166967391343</v>
       </c>
     </row>
     <row r="30">
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.5096447090972</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>7.104997571370177</v>
       </c>
       <c r="S31" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1559102373387</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.2828078300602</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>355.3920785550681</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>27.08771619254073</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.7899022159433</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>141.5096447090972</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>7.104997571370177</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1559102373387</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>327.1981864594961</v>
       </c>
       <c r="E35" t="n">
-        <v>392.6680520001486</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14.95204405400333</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.104997571370177</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1559102373387</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>41.93205789687424</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>24.53328115399102</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H38" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>80.79217330728871</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>50.76707565621376</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>38.00470263576224</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.104997571370177</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1559102373387</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>68.27428651278639</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>305.850361117322</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3912,10 +3912,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3347311118176</v>
+        <v>3.015668090710014</v>
       </c>
       <c r="V43" t="n">
-        <v>36.7193445335085</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3979,19 +3979,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>8.265049348756488</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>316.818320466856</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>163.7167301225565</v>
@@ -4188,16 +4188,16 @@
         <v>153.1383045355418</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>199.4486604410273</v>
+        <v>186.8386203984139</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>544.9673852354778</v>
+        <v>1292.767494648973</v>
       </c>
       <c r="C11" t="n">
-        <v>544.9673852354778</v>
+        <v>1292.767494648973</v>
       </c>
       <c r="D11" t="n">
-        <v>121.674764420478</v>
+        <v>869.4748738339733</v>
       </c>
       <c r="E11" t="n">
-        <v>121.674764420478</v>
+        <v>869.4748738339733</v>
       </c>
       <c r="F11" t="n">
-        <v>121.674764420478</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="G11" t="n">
-        <v>121.674764420478</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="H11" t="n">
         <v>41.98800785131959</v>
       </c>
       <c r="I11" t="n">
-        <v>82.46363936387522</v>
+        <v>82.46363936387525</v>
       </c>
       <c r="J11" t="n">
         <v>217.7424336056674</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792932</v>
       </c>
       <c r="L11" t="n">
-        <v>696.4871173961203</v>
+        <v>696.48711739612</v>
       </c>
       <c r="M11" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613556</v>
       </c>
       <c r="N11" t="n">
-        <v>1308.284447706123</v>
+        <v>1308.284447706122</v>
       </c>
       <c r="O11" t="n">
         <v>1597.638246646539</v>
@@ -5071,22 +5071,22 @@
         <v>2040.069817548878</v>
       </c>
       <c r="T11" t="n">
-        <v>2040.069817548878</v>
+        <v>1827.795842332533</v>
       </c>
       <c r="U11" t="n">
-        <v>1781.87301840437</v>
+        <v>1827.795842332533</v>
       </c>
       <c r="V11" t="n">
-        <v>1781.87301840437</v>
+        <v>1712.615858940503</v>
       </c>
       <c r="W11" t="n">
-        <v>1781.87301840437</v>
+        <v>1712.615858940503</v>
       </c>
       <c r="X11" t="n">
-        <v>1370.153019572118</v>
+        <v>1712.615858940503</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.8157495270078</v>
+        <v>1712.615858940503</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>41.98800785131959</v>
       </c>
       <c r="I12" t="n">
-        <v>61.66083576940666</v>
+        <v>61.66083576940665</v>
       </c>
       <c r="J12" t="n">
-        <v>139.1740587367883</v>
+        <v>428.6498350246932</v>
       </c>
       <c r="K12" t="n">
-        <v>284.3566619303506</v>
+        <v>573.8324382182554</v>
       </c>
       <c r="L12" t="n">
-        <v>487.1000015078573</v>
+        <v>776.5757777957621</v>
       </c>
       <c r="M12" t="n">
-        <v>726.8374070872659</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N12" t="n">
-        <v>975.2613532302561</v>
+        <v>1264.737129518161</v>
       </c>
       <c r="O12" t="n">
         <v>1488.38578996188</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>483.9259173275615</v>
+        <v>513.0807192300957</v>
       </c>
       <c r="C13" t="n">
-        <v>483.9259173275615</v>
+        <v>513.0807192300957</v>
       </c>
       <c r="D13" t="n">
-        <v>320.6091444543322</v>
+        <v>349.7639463568664</v>
       </c>
       <c r="E13" t="n">
-        <v>154.4009386071858</v>
+        <v>349.7639463568664</v>
       </c>
       <c r="F13" t="n">
-        <v>154.4009386071858</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="G13" t="n">
-        <v>154.4009386071858</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="H13" t="n">
-        <v>115.0960436647958</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="I13" t="n">
         <v>41.98800785131959</v>
       </c>
       <c r="J13" t="n">
-        <v>82.9883677688116</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K13" t="n">
-        <v>163.1829501660235</v>
+        <v>241.1046668142444</v>
       </c>
       <c r="L13" t="n">
-        <v>270.6640977326956</v>
+        <v>724.9747079720814</v>
       </c>
       <c r="M13" t="n">
-        <v>515.2563162148833</v>
+        <v>1244.576305132161</v>
       </c>
       <c r="N13" t="n">
-        <v>1025.712181833544</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O13" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973771</v>
       </c>
       <c r="P13" t="n">
-        <v>1899.642306432963</v>
+        <v>2051.015803810862</v>
       </c>
       <c r="Q13" t="n">
         <v>2099.400392565979</v>
@@ -5235,16 +5235,16 @@
         <v>1417.850954731567</v>
       </c>
       <c r="V13" t="n">
-        <v>1417.850954731567</v>
+        <v>1136.139487339596</v>
       </c>
       <c r="W13" t="n">
-        <v>1142.99855090408</v>
+        <v>861.2870835121089</v>
       </c>
       <c r="X13" t="n">
-        <v>900.4346543498851</v>
+        <v>618.723186957914</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.0918860396272</v>
+        <v>618.723186957914</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>738.0306800642431</v>
+        <v>1148.879216901028</v>
       </c>
       <c r="C14" t="n">
-        <v>738.0306800642431</v>
+        <v>721.978486914328</v>
       </c>
       <c r="D14" t="n">
-        <v>738.0306800642431</v>
+        <v>721.978486914328</v>
       </c>
       <c r="E14" t="n">
-        <v>312.0537402121007</v>
+        <v>721.978486914328</v>
       </c>
       <c r="F14" t="n">
-        <v>312.0537402121007</v>
+        <v>721.978486914328</v>
       </c>
       <c r="G14" t="n">
-        <v>41.9880078513196</v>
+        <v>319.6158027422739</v>
       </c>
       <c r="H14" t="n">
         <v>41.9880078513196</v>
@@ -5293,7 +5293,7 @@
         <v>1308.284447706123</v>
       </c>
       <c r="O14" t="n">
-        <v>1597.63824664654</v>
+        <v>1597.638246646539</v>
       </c>
       <c r="P14" t="n">
         <v>1838.98860696587</v>
@@ -5314,16 +5314,16 @@
         <v>1569.599043188026</v>
       </c>
       <c r="V14" t="n">
-        <v>1569.599043188026</v>
+        <v>1212.109628314275</v>
       </c>
       <c r="W14" t="n">
-        <v>1569.599043188026</v>
+        <v>1148.879216901028</v>
       </c>
       <c r="X14" t="n">
-        <v>1157.879044355773</v>
+        <v>1148.879216901028</v>
       </c>
       <c r="Y14" t="n">
-        <v>1157.879044355773</v>
+        <v>1148.879216901028</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>85.11814161381852</v>
       </c>
       <c r="J15" t="n">
-        <v>162.6313645812002</v>
+        <v>323.1943347397875</v>
       </c>
       <c r="K15" t="n">
-        <v>307.8139677747624</v>
+        <v>468.3769379333497</v>
       </c>
       <c r="L15" t="n">
-        <v>510.5573073522692</v>
+        <v>671.1202775108565</v>
       </c>
       <c r="M15" t="n">
-        <v>750.2947129316777</v>
+        <v>910.857683090265</v>
       </c>
       <c r="N15" t="n">
-        <v>998.7186590746679</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O15" t="n">
         <v>1382.930289676975</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>547.0655747441634</v>
+        <v>760.2149797586554</v>
       </c>
       <c r="C16" t="n">
-        <v>375.0930116230794</v>
+        <v>588.2424166375714</v>
       </c>
       <c r="D16" t="n">
-        <v>375.0930116230794</v>
+        <v>588.2424166375714</v>
       </c>
       <c r="E16" t="n">
-        <v>375.0930116230794</v>
+        <v>588.2424166375714</v>
       </c>
       <c r="F16" t="n">
-        <v>343.2726065986557</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="G16" t="n">
-        <v>177.9021721314269</v>
+        <v>251.0102079449031</v>
       </c>
       <c r="H16" t="n">
-        <v>41.9880078513196</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="I16" t="n">
         <v>41.9880078513196</v>
@@ -5439,22 +5439,22 @@
         <v>160.9100844170325</v>
       </c>
       <c r="K16" t="n">
-        <v>488.3872759282665</v>
+        <v>241.1046668142444</v>
       </c>
       <c r="L16" t="n">
-        <v>595.8684234949386</v>
+        <v>348.5858143809165</v>
       </c>
       <c r="M16" t="n">
-        <v>1115.470020655019</v>
+        <v>828.0125207881918</v>
       </c>
       <c r="N16" t="n">
-        <v>1227.892963431799</v>
+        <v>1338.468386406852</v>
       </c>
       <c r="O16" t="n">
-        <v>1655.327910400464</v>
+        <v>1816.710617595873</v>
       </c>
       <c r="P16" t="n">
-        <v>2051.015803810863</v>
+        <v>1899.642306432964</v>
       </c>
       <c r="Q16" t="n">
         <v>2099.40039256598</v>
@@ -5463,25 +5463,25 @@
         <v>2092.223627342374</v>
       </c>
       <c r="S16" t="n">
-        <v>2092.223627342374</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="T16" t="n">
-        <v>1852.672202860213</v>
+        <v>1697.987046763707</v>
       </c>
       <c r="U16" t="n">
-        <v>1572.536110828074</v>
+        <v>1697.987046763707</v>
       </c>
       <c r="V16" t="n">
-        <v>1290.824643436103</v>
+        <v>1416.275579371735</v>
       </c>
       <c r="W16" t="n">
-        <v>1015.972239608616</v>
+        <v>1141.423175544248</v>
       </c>
       <c r="X16" t="n">
-        <v>773.4083430544214</v>
+        <v>1141.423175544248</v>
       </c>
       <c r="Y16" t="n">
-        <v>547.0655747441634</v>
+        <v>915.0804072339904</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1223.012548671516</v>
+        <v>654.0667134675996</v>
       </c>
       <c r="C17" t="n">
-        <v>1223.012548671516</v>
+        <v>654.0667134675996</v>
       </c>
       <c r="D17" t="n">
-        <v>1223.012548671516</v>
+        <v>654.0667134675996</v>
       </c>
       <c r="E17" t="n">
-        <v>797.0356088193731</v>
+        <v>654.0667134675996</v>
       </c>
       <c r="F17" t="n">
-        <v>444.3506920233736</v>
+        <v>654.0667134675996</v>
       </c>
       <c r="G17" t="n">
-        <v>41.98800785131959</v>
+        <v>251.7040292955456</v>
       </c>
       <c r="H17" t="n">
         <v>41.98800785131959</v>
       </c>
       <c r="I17" t="n">
-        <v>82.46363936387502</v>
+        <v>82.46363936387547</v>
       </c>
       <c r="J17" t="n">
-        <v>217.7424336056672</v>
+        <v>217.7424336056677</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7352879792931</v>
+        <v>428.7352879792936</v>
       </c>
       <c r="L17" t="n">
-        <v>696.4871173961201</v>
+        <v>696.4871173961205</v>
       </c>
       <c r="M17" t="n">
-        <v>999.5589014613558</v>
+        <v>999.5589014613563</v>
       </c>
       <c r="N17" t="n">
-        <v>1308.284447706122</v>
+        <v>1308.284447706123</v>
       </c>
       <c r="O17" t="n">
         <v>1597.638246646539</v>
@@ -5545,22 +5545,22 @@
         <v>2040.069817548878</v>
       </c>
       <c r="T17" t="n">
-        <v>2040.069817548878</v>
+        <v>1827.795842332533</v>
       </c>
       <c r="U17" t="n">
-        <v>2040.069817548878</v>
+        <v>1827.795842332533</v>
       </c>
       <c r="V17" t="n">
-        <v>2040.069817548878</v>
+        <v>1470.306427458783</v>
       </c>
       <c r="W17" t="n">
-        <v>2040.069817548878</v>
+        <v>1073.91507775913</v>
       </c>
       <c r="X17" t="n">
-        <v>1628.349818716625</v>
+        <v>1073.91507775913</v>
       </c>
       <c r="Y17" t="n">
-        <v>1223.012548671516</v>
+        <v>1073.91507775913</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>85.11814161381849</v>
       </c>
       <c r="J18" t="n">
-        <v>162.6313645812002</v>
+        <v>323.1943347397876</v>
       </c>
       <c r="K18" t="n">
-        <v>573.8324382182553</v>
+        <v>468.3769379333498</v>
       </c>
       <c r="L18" t="n">
-        <v>776.5757777957621</v>
+        <v>671.1202775108565</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.313183375171</v>
+        <v>910.857683090265</v>
       </c>
       <c r="N18" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O18" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R18" t="n">
         <v>1815.43175696209</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.9318431298162</v>
+        <v>506.589379471885</v>
       </c>
       <c r="C19" t="n">
-        <v>459.9592800087322</v>
+        <v>506.589379471885</v>
       </c>
       <c r="D19" t="n">
-        <v>459.9592800087322</v>
+        <v>343.2726065986557</v>
       </c>
       <c r="E19" t="n">
-        <v>459.9592800087322</v>
+        <v>343.2726065986557</v>
       </c>
       <c r="F19" t="n">
-        <v>288.0975057832926</v>
+        <v>343.2726065986557</v>
       </c>
       <c r="G19" t="n">
-        <v>122.7270713160638</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="H19" t="n">
-        <v>115.0960436647958</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="I19" t="n">
         <v>41.98800785131959</v>
       </c>
       <c r="J19" t="n">
-        <v>82.9883677688116</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K19" t="n">
-        <v>163.1829501660235</v>
+        <v>488.3872759282664</v>
       </c>
       <c r="L19" t="n">
-        <v>647.0529913238606</v>
+        <v>972.2573170861035</v>
       </c>
       <c r="M19" t="n">
-        <v>760.9062624538216</v>
+        <v>1086.110588216064</v>
       </c>
       <c r="N19" t="n">
-        <v>1271.362128072482</v>
+        <v>1596.566453834725</v>
       </c>
       <c r="O19" t="n">
-        <v>1503.954413022565</v>
+        <v>1816.710617595872</v>
       </c>
       <c r="P19" t="n">
         <v>1899.642306432963</v>
@@ -5703,22 +5703,22 @@
         <v>1937.538471245866</v>
       </c>
       <c r="T19" t="n">
-        <v>1937.538471245866</v>
+        <v>1697.987046763706</v>
       </c>
       <c r="U19" t="n">
-        <v>1657.402379213727</v>
+        <v>1417.850954731567</v>
       </c>
       <c r="V19" t="n">
-        <v>1375.690911821756</v>
+        <v>1136.139487339596</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.838507994269</v>
+        <v>861.2870835121089</v>
       </c>
       <c r="X19" t="n">
-        <v>858.2746114400742</v>
+        <v>618.723186957914</v>
       </c>
       <c r="Y19" t="n">
-        <v>631.9318431298162</v>
+        <v>506.589379471885</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1294.544042825073</v>
+        <v>1827.795842332533</v>
       </c>
       <c r="C20" t="n">
-        <v>867.6433128383733</v>
+        <v>1400.895112345833</v>
       </c>
       <c r="D20" t="n">
-        <v>444.3506920233736</v>
+        <v>977.6024915308337</v>
       </c>
       <c r="E20" t="n">
-        <v>444.3506920233736</v>
+        <v>551.6255516786913</v>
       </c>
       <c r="F20" t="n">
-        <v>444.3506920233736</v>
+        <v>126.5013698680915</v>
       </c>
       <c r="G20" t="n">
         <v>41.98800785131959</v>
@@ -5749,7 +5749,7 @@
         <v>41.98800785131959</v>
       </c>
       <c r="I20" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387522</v>
       </c>
       <c r="J20" t="n">
         <v>217.7424336056674</v>
@@ -5785,19 +5785,19 @@
         <v>1827.795842332533</v>
       </c>
       <c r="U20" t="n">
-        <v>1569.599043188025</v>
+        <v>1827.795842332533</v>
       </c>
       <c r="V20" t="n">
-        <v>1569.599043188025</v>
+        <v>1827.795842332533</v>
       </c>
       <c r="W20" t="n">
-        <v>1294.544042825073</v>
+        <v>1827.795842332533</v>
       </c>
       <c r="X20" t="n">
-        <v>1294.544042825073</v>
+        <v>1827.795842332533</v>
       </c>
       <c r="Y20" t="n">
-        <v>1294.544042825073</v>
+        <v>1827.795842332533</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>41.98800785131959</v>
       </c>
       <c r="I21" t="n">
-        <v>61.66083576940666</v>
+        <v>85.11814161381849</v>
       </c>
       <c r="J21" t="n">
-        <v>139.1740587367883</v>
+        <v>162.6313645812002</v>
       </c>
       <c r="K21" t="n">
-        <v>284.3566619303506</v>
+        <v>307.8139677747624</v>
       </c>
       <c r="L21" t="n">
-        <v>776.575777795762</v>
+        <v>510.5573073522692</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.313183375171</v>
+        <v>750.2947129316779</v>
       </c>
       <c r="N21" t="n">
-        <v>1264.737129518161</v>
+        <v>998.7186590746682</v>
       </c>
       <c r="O21" t="n">
-        <v>1488.38578996188</v>
+        <v>1222.367319518387</v>
       </c>
       <c r="P21" t="n">
-        <v>1664.74193391763</v>
+        <v>1398.723463474137</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R21" t="n">
         <v>1815.43175696209</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.380418647656</v>
+        <v>385.8223451978432</v>
       </c>
       <c r="C22" t="n">
-        <v>380.0579879239056</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="D22" t="n">
-        <v>380.0579879239056</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="E22" t="n">
         <v>213.8497820767592</v>
@@ -5916,46 +5916,46 @@
         <v>488.3872759282665</v>
       </c>
       <c r="L22" t="n">
-        <v>595.8684234949386</v>
+        <v>972.2573170861035</v>
       </c>
       <c r="M22" t="n">
-        <v>709.7216946248996</v>
+        <v>1086.110588216064</v>
       </c>
       <c r="N22" t="n">
-        <v>1025.712181833544</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O22" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973771</v>
       </c>
       <c r="P22" t="n">
-        <v>1899.642306432963</v>
+        <v>2051.015803810862</v>
       </c>
       <c r="Q22" t="n">
         <v>2099.400392565979</v>
       </c>
       <c r="R22" t="n">
-        <v>2092.223627342373</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="S22" t="n">
-        <v>1937.538471245866</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="T22" t="n">
-        <v>1697.987046763706</v>
+        <v>1859.848968083819</v>
       </c>
       <c r="U22" t="n">
-        <v>1417.850954731567</v>
+        <v>1579.71287605168</v>
       </c>
       <c r="V22" t="n">
-        <v>1136.139487339596</v>
+        <v>1298.001408659709</v>
       </c>
       <c r="W22" t="n">
-        <v>861.2870835121089</v>
+        <v>1044.894978774362</v>
       </c>
       <c r="X22" t="n">
-        <v>618.723186957914</v>
+        <v>802.3310822201668</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.380418647656</v>
+        <v>575.9883139099088</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1292.767494648973</v>
+        <v>1743.282480315761</v>
       </c>
       <c r="C23" t="n">
-        <v>1292.767494648973</v>
+        <v>1316.381750329062</v>
       </c>
       <c r="D23" t="n">
-        <v>869.4748738339733</v>
+        <v>893.0891295140618</v>
       </c>
       <c r="E23" t="n">
-        <v>869.4748738339733</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="F23" t="n">
-        <v>444.3506920233736</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="G23" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="H23" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="I23" t="n">
         <v>82.46363936387525</v>
@@ -5998,43 +5998,43 @@
         <v>696.4871173961202</v>
       </c>
       <c r="M23" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613558</v>
       </c>
       <c r="N23" t="n">
-        <v>1308.284447706123</v>
+        <v>1308.284447706122</v>
       </c>
       <c r="O23" t="n">
-        <v>1597.63824664654</v>
+        <v>1597.638246646539</v>
       </c>
       <c r="P23" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q23" t="n">
         <v>2012.404604961347</v>
       </c>
       <c r="R23" t="n">
-        <v>2099.40039256598</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="S23" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="T23" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="U23" t="n">
-        <v>1781.873018404371</v>
+        <v>1841.203593421472</v>
       </c>
       <c r="V23" t="n">
-        <v>1781.873018404371</v>
+        <v>1841.203593421472</v>
       </c>
       <c r="W23" t="n">
-        <v>1712.615858940503</v>
+        <v>1841.203593421472</v>
       </c>
       <c r="X23" t="n">
-        <v>1712.615858940503</v>
+        <v>1743.282480315761</v>
       </c>
       <c r="Y23" t="n">
-        <v>1712.615858940503</v>
+        <v>1743.282480315761</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>85.15130637965788</v>
       </c>
       <c r="H24" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="I24" t="n">
-        <v>61.66083576940666</v>
+        <v>61.66083576940665</v>
       </c>
       <c r="J24" t="n">
-        <v>139.1740587367883</v>
+        <v>323.1943347397876</v>
       </c>
       <c r="K24" t="n">
-        <v>284.3566619303506</v>
+        <v>468.3769379333498</v>
       </c>
       <c r="L24" t="n">
-        <v>487.1000015078573</v>
+        <v>671.1202775108565</v>
       </c>
       <c r="M24" t="n">
-        <v>726.8374070872658</v>
+        <v>910.857683090265</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.439004247346</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O24" t="n">
-        <v>1470.087664691065</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P24" t="n">
-        <v>1646.443808646815</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q24" t="n">
-        <v>1756.221351092355</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R24" t="n">
         <v>1815.43175696209</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.765874417751</v>
+        <v>392.380418647656</v>
       </c>
       <c r="C25" t="n">
-        <v>269.7933112966671</v>
+        <v>392.380418647656</v>
       </c>
       <c r="D25" t="n">
-        <v>269.7933112966671</v>
+        <v>229.0636457744267</v>
       </c>
       <c r="E25" t="n">
-        <v>269.7933112966671</v>
+        <v>62.85543992728029</v>
       </c>
       <c r="F25" t="n">
-        <v>269.7933112966671</v>
+        <v>62.85543992728029</v>
       </c>
       <c r="G25" t="n">
-        <v>177.9021721314269</v>
+        <v>62.85543992728029</v>
       </c>
       <c r="H25" t="n">
-        <v>41.9880078513196</v>
+        <v>62.85543992728029</v>
       </c>
       <c r="I25" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="J25" t="n">
-        <v>82.98836776881161</v>
+        <v>82.9883677688116</v>
       </c>
       <c r="K25" t="n">
-        <v>295.2353282302892</v>
+        <v>410.4655592800456</v>
       </c>
       <c r="L25" t="n">
-        <v>779.1053693881262</v>
+        <v>894.3356004378826</v>
       </c>
       <c r="M25" t="n">
-        <v>892.9586405180871</v>
+        <v>1008.188871567844</v>
       </c>
       <c r="N25" t="n">
-        <v>1403.414506136748</v>
+        <v>1120.611814344624</v>
       </c>
       <c r="O25" t="n">
-        <v>1503.954413022565</v>
+        <v>1598.854045533644</v>
       </c>
       <c r="P25" t="n">
-        <v>1899.642306432964</v>
+        <v>1994.541938944043</v>
       </c>
       <c r="Q25" t="n">
-        <v>2099.40039256598</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="R25" t="n">
-        <v>2092.223627342374</v>
+        <v>2092.223627342373</v>
       </c>
       <c r="S25" t="n">
-        <v>1937.538471245867</v>
+        <v>1937.538471245866</v>
       </c>
       <c r="T25" t="n">
-        <v>1937.538471245867</v>
+        <v>1697.987046763706</v>
       </c>
       <c r="U25" t="n">
-        <v>1657.402379213728</v>
+        <v>1417.850954731567</v>
       </c>
       <c r="V25" t="n">
-        <v>1375.690911821757</v>
+        <v>1136.139487339596</v>
       </c>
       <c r="W25" t="n">
-        <v>1100.83850799427</v>
+        <v>861.2870835121089</v>
       </c>
       <c r="X25" t="n">
-        <v>858.2746114400746</v>
+        <v>618.723186957914</v>
       </c>
       <c r="Y25" t="n">
-        <v>631.9318431298167</v>
+        <v>392.380418647656</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>752.5417743106631</v>
+        <v>1316.381750329062</v>
       </c>
       <c r="C26" t="n">
-        <v>752.5417743106631</v>
+        <v>1316.381750329062</v>
       </c>
       <c r="D26" t="n">
-        <v>329.2491534956633</v>
+        <v>893.0891295140618</v>
       </c>
       <c r="E26" t="n">
-        <v>329.2491534956633</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="F26" t="n">
         <v>41.98800785131959</v>
@@ -6223,10 +6223,10 @@
         <v>41.98800785131959</v>
       </c>
       <c r="I26" t="n">
-        <v>82.46363936387479</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J26" t="n">
-        <v>217.7424336056672</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K26" t="n">
         <v>428.7352879792934</v>
@@ -6235,10 +6235,10 @@
         <v>696.4871173961203</v>
       </c>
       <c r="M26" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613558</v>
       </c>
       <c r="N26" t="n">
-        <v>1308.284447706123</v>
+        <v>1308.284447706122</v>
       </c>
       <c r="O26" t="n">
         <v>1597.638246646539</v>
@@ -6256,22 +6256,22 @@
         <v>2040.069817548878</v>
       </c>
       <c r="T26" t="n">
-        <v>1827.795842332533</v>
+        <v>2040.069817548878</v>
       </c>
       <c r="U26" t="n">
-        <v>1569.599043188025</v>
+        <v>2040.069817548878</v>
       </c>
       <c r="V26" t="n">
-        <v>1569.599043188025</v>
+        <v>2040.069817548878</v>
       </c>
       <c r="W26" t="n">
-        <v>1569.599043188025</v>
+        <v>2040.069817548878</v>
       </c>
       <c r="X26" t="n">
-        <v>1157.879044355773</v>
+        <v>1736.230114620592</v>
       </c>
       <c r="Y26" t="n">
-        <v>752.5417743106631</v>
+        <v>1736.230114620592</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>61.66083576940666</v>
       </c>
       <c r="J27" t="n">
-        <v>148.7856434440217</v>
+        <v>139.1740587367883</v>
       </c>
       <c r="K27" t="n">
-        <v>293.968246637584</v>
+        <v>284.3566619303506</v>
       </c>
       <c r="L27" t="n">
-        <v>496.7115862150907</v>
+        <v>487.1000015078573</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.313183375171</v>
+        <v>726.8374070872659</v>
       </c>
       <c r="N27" t="n">
-        <v>1264.737129518161</v>
+        <v>975.2613532302561</v>
       </c>
       <c r="O27" t="n">
-        <v>1488.38578996188</v>
+        <v>1198.910013673975</v>
       </c>
       <c r="P27" t="n">
-        <v>1664.74193391763</v>
+        <v>1375.266157629725</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R27" t="n">
         <v>1815.43175696209</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>672.7975853190314</v>
+        <v>477.0668537630774</v>
       </c>
       <c r="C28" t="n">
-        <v>672.7975853190314</v>
+        <v>305.0942906419934</v>
       </c>
       <c r="D28" t="n">
-        <v>509.4808124458021</v>
+        <v>305.0942906419934</v>
       </c>
       <c r="E28" t="n">
-        <v>343.2726065986557</v>
+        <v>286.9578178902353</v>
       </c>
       <c r="F28" t="n">
-        <v>343.2726065986557</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="G28" t="n">
-        <v>177.9021721314269</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="H28" t="n">
-        <v>41.98800785131959</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="I28" t="n">
         <v>41.98800785131959</v>
@@ -6387,22 +6387,22 @@
         <v>82.9883677688116</v>
       </c>
       <c r="K28" t="n">
-        <v>287.51992504205</v>
+        <v>163.1829501660235</v>
       </c>
       <c r="L28" t="n">
-        <v>771.389966199887</v>
+        <v>459.7844210060101</v>
       </c>
       <c r="M28" t="n">
-        <v>1290.991563359967</v>
+        <v>979.38601816609</v>
       </c>
       <c r="N28" t="n">
-        <v>1403.414506136747</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O28" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973771</v>
       </c>
       <c r="P28" t="n">
-        <v>1899.642306432963</v>
+        <v>2051.015803810862</v>
       </c>
       <c r="Q28" t="n">
         <v>2099.400392565979</v>
@@ -6420,16 +6420,16 @@
         <v>1417.850954731567</v>
       </c>
       <c r="V28" t="n">
-        <v>1417.850954731567</v>
+        <v>1136.139487339596</v>
       </c>
       <c r="W28" t="n">
-        <v>1142.99855090408</v>
+        <v>1136.139487339596</v>
       </c>
       <c r="X28" t="n">
-        <v>900.4346543498851</v>
+        <v>893.575590785401</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.0918860396272</v>
+        <v>667.2328224751431</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.1121896619194</v>
+        <v>1292.767494648973</v>
       </c>
       <c r="C29" t="n">
-        <v>467.1121896619194</v>
+        <v>1292.767494648973</v>
       </c>
       <c r="D29" t="n">
-        <v>467.1121896619194</v>
+        <v>869.4748738339733</v>
       </c>
       <c r="E29" t="n">
-        <v>467.1121896619194</v>
+        <v>869.4748738339733</v>
       </c>
       <c r="F29" t="n">
-        <v>41.9880078513196</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="G29" t="n">
         <v>41.9880078513196</v>
@@ -6460,16 +6460,16 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I29" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J29" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K29" t="n">
         <v>428.7352879792934</v>
       </c>
       <c r="L29" t="n">
-        <v>696.4871173961204</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M29" t="n">
         <v>999.5589014613561</v>
@@ -6478,7 +6478,7 @@
         <v>1308.284447706123</v>
       </c>
       <c r="O29" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P29" t="n">
         <v>1838.988606965869</v>
@@ -6490,25 +6490,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S29" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T29" t="n">
-        <v>1887.126417349635</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U29" t="n">
-        <v>1887.126417349635</v>
+        <v>1781.873018404371</v>
       </c>
       <c r="V29" t="n">
-        <v>1529.637002475885</v>
+        <v>1781.873018404371</v>
       </c>
       <c r="W29" t="n">
-        <v>1529.637002475885</v>
+        <v>1781.873018404371</v>
       </c>
       <c r="X29" t="n">
-        <v>1292.297823998559</v>
+        <v>1370.153019572118</v>
       </c>
       <c r="Y29" t="n">
-        <v>886.9605539534494</v>
+        <v>1292.767494648973</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>61.66083576940667</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1740587367883</v>
+        <v>428.6498350246931</v>
       </c>
       <c r="K30" t="n">
-        <v>284.3566619303506</v>
+        <v>573.8324382182553</v>
       </c>
       <c r="L30" t="n">
-        <v>487.1000015078573</v>
+        <v>776.5757777957621</v>
       </c>
       <c r="M30" t="n">
-        <v>726.8374070872659</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N30" t="n">
-        <v>975.2613532302561</v>
+        <v>1264.737129518161</v>
       </c>
       <c r="O30" t="n">
         <v>1488.38578996188</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>515.2451697197397</v>
+        <v>356.8996060320978</v>
       </c>
       <c r="C31" t="n">
-        <v>343.2726065986557</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="D31" t="n">
-        <v>343.2726065986557</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="E31" t="n">
-        <v>343.2726065986557</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="F31" t="n">
-        <v>343.2726065986557</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G31" t="n">
-        <v>177.9021721314269</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H31" t="n">
         <v>41.9880078513196</v>
@@ -6621,19 +6621,19 @@
         <v>41.9880078513196</v>
       </c>
       <c r="J31" t="n">
-        <v>82.98836776881161</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K31" t="n">
-        <v>163.1829501660235</v>
+        <v>488.3872759282665</v>
       </c>
       <c r="L31" t="n">
-        <v>647.0529913238606</v>
+        <v>972.2573170861035</v>
       </c>
       <c r="M31" t="n">
-        <v>828.0125207881918</v>
+        <v>1205.714845091395</v>
       </c>
       <c r="N31" t="n">
-        <v>1338.468386406852</v>
+        <v>1716.170710710056</v>
       </c>
       <c r="O31" t="n">
         <v>1816.710617595873</v>
@@ -6648,25 +6648,25 @@
         <v>2092.223627342374</v>
       </c>
       <c r="S31" t="n">
-        <v>1937.538471245867</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="T31" t="n">
-        <v>1697.987046763707</v>
+        <v>1852.672202860213</v>
       </c>
       <c r="U31" t="n">
-        <v>1417.850954731568</v>
+        <v>1572.536110828074</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.139487339596</v>
+        <v>1290.824643436103</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.139487339596</v>
+        <v>1015.972239608616</v>
       </c>
       <c r="X31" t="n">
-        <v>893.5755907854015</v>
+        <v>773.4083430544214</v>
       </c>
       <c r="Y31" t="n">
-        <v>705.4111384318053</v>
+        <v>547.0655747441634</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>400.9699053816914</v>
+        <v>1318.158298505162</v>
       </c>
       <c r="C32" t="n">
-        <v>400.9699053816914</v>
+        <v>891.2575685184618</v>
       </c>
       <c r="D32" t="n">
-        <v>400.9699053816914</v>
+        <v>467.964947703462</v>
       </c>
       <c r="E32" t="n">
         <v>41.9880078513196</v>
@@ -6697,13 +6697,13 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I32" t="n">
-        <v>82.46363936387536</v>
+        <v>82.46363936387525</v>
       </c>
       <c r="J32" t="n">
-        <v>217.7424336056675</v>
+        <v>217.7424336056674</v>
       </c>
       <c r="K32" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L32" t="n">
         <v>696.4871173961203</v>
@@ -6715,7 +6715,7 @@
         <v>1308.284447706123</v>
       </c>
       <c r="O32" t="n">
-        <v>1597.63824664654</v>
+        <v>1597.638246646539</v>
       </c>
       <c r="P32" t="n">
         <v>1838.988606965869</v>
@@ -6727,25 +6727,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S32" t="n">
-        <v>2099.40039256598</v>
+        <v>2072.039063078565</v>
       </c>
       <c r="T32" t="n">
-        <v>1887.126417349635</v>
+        <v>2072.039063078565</v>
       </c>
       <c r="U32" t="n">
-        <v>1628.929618205127</v>
+        <v>2072.039063078565</v>
       </c>
       <c r="V32" t="n">
-        <v>1628.929618205127</v>
+        <v>1714.549648204815</v>
       </c>
       <c r="W32" t="n">
-        <v>1232.538268505474</v>
+        <v>1318.158298505162</v>
       </c>
       <c r="X32" t="n">
-        <v>820.8182696732215</v>
+        <v>1318.158298505162</v>
       </c>
       <c r="Y32" t="n">
-        <v>820.8182696732215</v>
+        <v>1318.158298505162</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I33" t="n">
-        <v>61.66083576940667</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J33" t="n">
-        <v>139.1740587367883</v>
+        <v>323.1943347397875</v>
       </c>
       <c r="K33" t="n">
-        <v>284.3566619303506</v>
+        <v>468.3769379333497</v>
       </c>
       <c r="L33" t="n">
-        <v>487.1000015078573</v>
+        <v>671.1202775108565</v>
       </c>
       <c r="M33" t="n">
-        <v>726.8374070872659</v>
+        <v>910.857683090265</v>
       </c>
       <c r="N33" t="n">
-        <v>975.2613532302561</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O33" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P33" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R33" t="n">
         <v>1815.43175696209</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.3282523574642</v>
+        <v>356.8996060320978</v>
       </c>
       <c r="C34" t="n">
-        <v>452.3282523574642</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="D34" t="n">
-        <v>452.3282523574642</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="E34" t="n">
-        <v>452.3282523574642</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="F34" t="n">
-        <v>280.4664781320246</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0960436647958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H34" t="n">
-        <v>115.0960436647958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I34" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="J34" t="n">
-        <v>82.98836776881161</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K34" t="n">
-        <v>163.1829501660235</v>
+        <v>488.3872759282665</v>
       </c>
       <c r="L34" t="n">
-        <v>393.687641896684</v>
+        <v>972.2573170861035</v>
       </c>
       <c r="M34" t="n">
-        <v>913.289239056764</v>
+        <v>1491.858914246184</v>
       </c>
       <c r="N34" t="n">
-        <v>1025.712181833544</v>
+        <v>1867.544208087954</v>
       </c>
       <c r="O34" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P34" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q34" t="n">
         <v>2099.40039256598</v>
@@ -6885,25 +6885,25 @@
         <v>2092.223627342374</v>
       </c>
       <c r="S34" t="n">
-        <v>1937.538471245867</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="T34" t="n">
-        <v>1697.987046763707</v>
+        <v>1852.672202860213</v>
       </c>
       <c r="U34" t="n">
-        <v>1417.850954731568</v>
+        <v>1572.536110828074</v>
       </c>
       <c r="V34" t="n">
-        <v>1136.139487339596</v>
+        <v>1290.824643436103</v>
       </c>
       <c r="W34" t="n">
-        <v>861.2870835121093</v>
+        <v>1015.972239608616</v>
       </c>
       <c r="X34" t="n">
-        <v>861.2870835121093</v>
+        <v>773.4083430544214</v>
       </c>
       <c r="Y34" t="n">
-        <v>634.9443152018514</v>
+        <v>547.0655747441634</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>865.5231337977656</v>
+        <v>1223.592348160018</v>
       </c>
       <c r="C35" t="n">
-        <v>438.6224038110657</v>
+        <v>1223.592348160018</v>
       </c>
       <c r="D35" t="n">
-        <v>438.6224038110657</v>
+        <v>893.0891295140618</v>
       </c>
       <c r="E35" t="n">
-        <v>41.9880078513196</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="F35" t="n">
         <v>41.9880078513196</v>
@@ -6964,25 +6964,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S35" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T35" t="n">
-        <v>2040.069817548879</v>
+        <v>1887.126417349635</v>
       </c>
       <c r="U35" t="n">
-        <v>2040.069817548879</v>
+        <v>1628.929618205127</v>
       </c>
       <c r="V35" t="n">
-        <v>1682.580402675128</v>
+        <v>1628.929618205127</v>
       </c>
       <c r="W35" t="n">
-        <v>1682.580402675128</v>
+        <v>1628.929618205127</v>
       </c>
       <c r="X35" t="n">
-        <v>1270.860403842875</v>
+        <v>1628.929618205127</v>
       </c>
       <c r="Y35" t="n">
-        <v>865.5231337977656</v>
+        <v>1223.592348160018</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>85.11814161381852</v>
       </c>
       <c r="J36" t="n">
-        <v>162.6313645812002</v>
+        <v>323.1943347397875</v>
       </c>
       <c r="K36" t="n">
-        <v>307.8139677747624</v>
+        <v>468.3769379333497</v>
       </c>
       <c r="L36" t="n">
-        <v>510.5573073522692</v>
+        <v>671.1202775108565</v>
       </c>
       <c r="M36" t="n">
-        <v>750.2947129316777</v>
+        <v>910.857683090265</v>
       </c>
       <c r="N36" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O36" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R36" t="n">
         <v>1815.43175696209</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>377.2773438456329</v>
+        <v>754.4506224847179</v>
       </c>
       <c r="C37" t="n">
-        <v>205.3047807245489</v>
+        <v>754.4506224847179</v>
       </c>
       <c r="D37" t="n">
-        <v>41.9880078513196</v>
+        <v>754.4506224847179</v>
       </c>
       <c r="E37" t="n">
-        <v>41.9880078513196</v>
+        <v>588.2424166375714</v>
       </c>
       <c r="F37" t="n">
-        <v>41.9880078513196</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="G37" t="n">
-        <v>41.9880078513196</v>
+        <v>251.0102079449031</v>
       </c>
       <c r="H37" t="n">
-        <v>41.9880078513196</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="I37" t="n">
         <v>41.9880078513196</v>
@@ -7098,49 +7098,49 @@
         <v>82.98836776881161</v>
       </c>
       <c r="K37" t="n">
-        <v>163.1829501660235</v>
+        <v>410.4655592800456</v>
       </c>
       <c r="L37" t="n">
-        <v>270.6640977326956</v>
+        <v>894.3356004378826</v>
       </c>
       <c r="M37" t="n">
-        <v>666.6298135927825</v>
+        <v>1008.188871567844</v>
       </c>
       <c r="N37" t="n">
-        <v>1177.085679211443</v>
+        <v>1518.644737186504</v>
       </c>
       <c r="O37" t="n">
-        <v>1655.327910400464</v>
+        <v>1816.710617595873</v>
       </c>
       <c r="P37" t="n">
-        <v>2051.015803810863</v>
+        <v>1899.642306432964</v>
       </c>
       <c r="Q37" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="R37" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S37" t="n">
-        <v>1937.538471245867</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.987046763707</v>
+        <v>1859.84896808382</v>
       </c>
       <c r="U37" t="n">
-        <v>1417.850954731568</v>
+        <v>1579.712876051681</v>
       </c>
       <c r="V37" t="n">
-        <v>1136.139487339596</v>
+        <v>1298.00140865971</v>
       </c>
       <c r="W37" t="n">
-        <v>861.2870835121093</v>
+        <v>1023.149004832223</v>
       </c>
       <c r="X37" t="n">
-        <v>618.7231869579144</v>
+        <v>980.7933907949758</v>
       </c>
       <c r="Y37" t="n">
-        <v>392.3804186476565</v>
+        <v>754.4506224847179</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>745.5927425944163</v>
+        <v>469.131784098112</v>
       </c>
       <c r="C38" t="n">
-        <v>745.5927425944163</v>
+        <v>469.131784098112</v>
       </c>
       <c r="D38" t="n">
-        <v>745.5927425944163</v>
+        <v>469.131784098112</v>
       </c>
       <c r="E38" t="n">
-        <v>319.6158027422739</v>
+        <v>469.131784098112</v>
       </c>
       <c r="F38" t="n">
-        <v>319.6158027422739</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="G38" t="n">
-        <v>319.6158027422739</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="H38" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="I38" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J38" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7352879792933</v>
+        <v>428.7352879792934</v>
       </c>
       <c r="L38" t="n">
         <v>696.4871173961203</v>
       </c>
       <c r="M38" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613558</v>
       </c>
       <c r="N38" t="n">
-        <v>1308.284447706123</v>
+        <v>1308.284447706122</v>
       </c>
       <c r="O38" t="n">
         <v>1597.638246646539</v>
@@ -7198,28 +7198,28 @@
         <v>2012.404604961347</v>
       </c>
       <c r="R38" t="n">
-        <v>2099.40039256598</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="S38" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548878</v>
       </c>
       <c r="T38" t="n">
-        <v>1887.126417349635</v>
+        <v>2040.069817548878</v>
       </c>
       <c r="U38" t="n">
-        <v>1628.929618205127</v>
+        <v>2040.069817548878</v>
       </c>
       <c r="V38" t="n">
-        <v>1628.929618205127</v>
+        <v>1682.580402675128</v>
       </c>
       <c r="W38" t="n">
-        <v>1232.538268505474</v>
+        <v>1286.189052975474</v>
       </c>
       <c r="X38" t="n">
-        <v>1150.930012639526</v>
+        <v>874.4690541432217</v>
       </c>
       <c r="Y38" t="n">
-        <v>745.5927425944163</v>
+        <v>469.131784098112</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>85.15130637965788</v>
       </c>
       <c r="H39" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="I39" t="n">
-        <v>61.66083576940667</v>
+        <v>85.11814161381849</v>
       </c>
       <c r="J39" t="n">
-        <v>139.1740587367883</v>
+        <v>323.1943347397875</v>
       </c>
       <c r="K39" t="n">
-        <v>284.3566619303506</v>
+        <v>468.3769379333497</v>
       </c>
       <c r="L39" t="n">
-        <v>487.1000015078573</v>
+        <v>671.1202775108565</v>
       </c>
       <c r="M39" t="n">
-        <v>726.8374070872659</v>
+        <v>910.857683090265</v>
       </c>
       <c r="N39" t="n">
-        <v>975.2613532302561</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.910013673975</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P39" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R39" t="n">
         <v>1815.43175696209</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>428.5572182458488</v>
+        <v>590.4191395659616</v>
       </c>
       <c r="C40" t="n">
-        <v>256.5846551247648</v>
+        <v>418.4465764448776</v>
       </c>
       <c r="D40" t="n">
-        <v>93.26788225153553</v>
+        <v>418.4465764448776</v>
       </c>
       <c r="E40" t="n">
-        <v>93.26788225153553</v>
+        <v>252.2383705977311</v>
       </c>
       <c r="F40" t="n">
-        <v>41.9880078513196</v>
+        <v>80.37659637229154</v>
       </c>
       <c r="G40" t="n">
-        <v>41.9880078513196</v>
+        <v>80.37659637229154</v>
       </c>
       <c r="H40" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="I40" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="J40" t="n">
-        <v>82.98836776881161</v>
+        <v>82.9883677688116</v>
       </c>
       <c r="K40" t="n">
-        <v>163.1829501660235</v>
+        <v>410.4655592800456</v>
       </c>
       <c r="L40" t="n">
-        <v>270.6640977326956</v>
+        <v>894.3356004378826</v>
       </c>
       <c r="M40" t="n">
-        <v>666.6298135927825</v>
+        <v>1008.188871567844</v>
       </c>
       <c r="N40" t="n">
-        <v>1177.085679211443</v>
+        <v>1120.611814344624</v>
       </c>
       <c r="O40" t="n">
-        <v>1655.327910400464</v>
+        <v>1598.854045533645</v>
       </c>
       <c r="P40" t="n">
-        <v>2051.015803810863</v>
+        <v>1994.541938944043</v>
       </c>
       <c r="Q40" t="n">
-        <v>2099.40039256598</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="R40" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="S40" t="n">
-        <v>1937.538471245867</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="T40" t="n">
-        <v>1697.987046763707</v>
+        <v>1859.848968083819</v>
       </c>
       <c r="U40" t="n">
-        <v>1417.850954731568</v>
+        <v>1579.71287605168</v>
       </c>
       <c r="V40" t="n">
-        <v>1136.139487339596</v>
+        <v>1298.001408659709</v>
       </c>
       <c r="W40" t="n">
-        <v>861.2870835121093</v>
+        <v>1023.149004832222</v>
       </c>
       <c r="X40" t="n">
-        <v>618.7231869579144</v>
+        <v>780.5851082780272</v>
       </c>
       <c r="Y40" t="n">
-        <v>618.7231869579144</v>
+        <v>780.5851082780272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.8723493277649</v>
+        <v>1319.989859500762</v>
       </c>
       <c r="C41" t="n">
-        <v>811.8723493277649</v>
+        <v>893.0891295140618</v>
       </c>
       <c r="D41" t="n">
-        <v>388.5797285127652</v>
+        <v>893.0891295140618</v>
       </c>
       <c r="E41" t="n">
-        <v>388.5797285127652</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="F41" t="n">
-        <v>319.6158027422739</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G41" t="n">
-        <v>319.6158027422739</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H41" t="n">
         <v>41.9880078513196</v>
@@ -7426,13 +7426,13 @@
         <v>1308.284447706122</v>
       </c>
       <c r="O41" t="n">
-        <v>1597.63824664654</v>
+        <v>1597.638246646539</v>
       </c>
       <c r="P41" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q41" t="n">
-        <v>2012.404604961347</v>
+        <v>2012.404604961346</v>
       </c>
       <c r="R41" t="n">
         <v>2099.40039256598</v>
@@ -7450,13 +7450,13 @@
         <v>1628.929618205127</v>
       </c>
       <c r="W41" t="n">
-        <v>1628.929618205127</v>
+        <v>1319.989859500762</v>
       </c>
       <c r="X41" t="n">
-        <v>1217.209619372875</v>
+        <v>1319.989859500762</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.8723493277649</v>
+        <v>1319.989859500762</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>61.66083576940666</v>
       </c>
       <c r="J42" t="n">
-        <v>139.1740587367883</v>
+        <v>428.6498350246932</v>
       </c>
       <c r="K42" t="n">
-        <v>284.3566619303506</v>
+        <v>573.8324382182554</v>
       </c>
       <c r="L42" t="n">
-        <v>487.1000015078573</v>
+        <v>776.5757777957621</v>
       </c>
       <c r="M42" t="n">
-        <v>726.8374070872658</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N42" t="n">
-        <v>975.261353230256</v>
+        <v>1264.737129518161</v>
       </c>
       <c r="O42" t="n">
-        <v>1198.910013673975</v>
+        <v>1488.38578996188</v>
       </c>
       <c r="P42" t="n">
-        <v>1375.266157629725</v>
+        <v>1664.74193391763</v>
       </c>
       <c r="Q42" t="n">
         <v>1774.51947636317</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>851.2614881983262</v>
+        <v>880.7177583854477</v>
       </c>
       <c r="C43" t="n">
-        <v>679.2889250772422</v>
+        <v>708.7451952643637</v>
       </c>
       <c r="D43" t="n">
-        <v>515.9721522040129</v>
+        <v>545.4284223911344</v>
       </c>
       <c r="E43" t="n">
-        <v>349.7639463568664</v>
+        <v>379.2202165439879</v>
       </c>
       <c r="F43" t="n">
-        <v>177.9021721314269</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="G43" t="n">
-        <v>177.9021721314269</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H43" t="n">
         <v>41.9880078513196</v>
@@ -7569,25 +7569,25 @@
         <v>41.9880078513196</v>
       </c>
       <c r="J43" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881161</v>
       </c>
       <c r="K43" t="n">
-        <v>488.3872759282664</v>
+        <v>163.1829501660235</v>
       </c>
       <c r="L43" t="n">
-        <v>595.8684234949385</v>
+        <v>647.0529913238606</v>
       </c>
       <c r="M43" t="n">
-        <v>709.7216946248994</v>
+        <v>1166.654588483941</v>
       </c>
       <c r="N43" t="n">
-        <v>1220.17756024356</v>
+        <v>1677.110454102601</v>
       </c>
       <c r="O43" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P43" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q43" t="n">
         <v>2099.40039256598</v>
@@ -7599,22 +7599,22 @@
         <v>2099.40039256598</v>
       </c>
       <c r="T43" t="n">
-        <v>1859.84896808382</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="U43" t="n">
-        <v>1579.712876051681</v>
+        <v>2096.354263181424</v>
       </c>
       <c r="V43" t="n">
-        <v>1542.622629048137</v>
+        <v>1814.642795789453</v>
       </c>
       <c r="W43" t="n">
-        <v>1267.77022522065</v>
+        <v>1539.790391961966</v>
       </c>
       <c r="X43" t="n">
-        <v>1267.77022522065</v>
+        <v>1297.226495407771</v>
       </c>
       <c r="Y43" t="n">
-        <v>1041.427456910392</v>
+        <v>1070.883727097513</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>877.823408529687</v>
+        <v>1214.884183212239</v>
       </c>
       <c r="C44" t="n">
-        <v>869.4748738339733</v>
+        <v>787.9834532255388</v>
       </c>
       <c r="D44" t="n">
-        <v>869.4748738339733</v>
+        <v>467.964947703462</v>
       </c>
       <c r="E44" t="n">
-        <v>869.4748738339733</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="F44" t="n">
-        <v>444.3506920233736</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G44" t="n">
         <v>41.9880078513196</v>
@@ -7675,25 +7675,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S44" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T44" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U44" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="V44" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="W44" t="n">
-        <v>1703.009042866327</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="X44" t="n">
-        <v>1703.009042866327</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="Y44" t="n">
-        <v>1297.671772821217</v>
+        <v>1634.732547503769</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>881.8098841943282</v>
+        <v>597.841248590438</v>
       </c>
       <c r="C45" t="n">
-        <v>764.303980711833</v>
+        <v>480.3353451079428</v>
       </c>
       <c r="D45" t="n">
-        <v>660.464022227118</v>
+        <v>376.4953866232278</v>
       </c>
       <c r="E45" t="n">
-        <v>555.7620885000553</v>
+        <v>271.793452896165</v>
       </c>
       <c r="F45" t="n">
-        <v>462.1162581829594</v>
+        <v>178.1476225790692</v>
       </c>
       <c r="G45" t="n">
-        <v>369.1199419835481</v>
+        <v>85.15130637965788</v>
       </c>
       <c r="H45" t="n">
-        <v>325.9566434552098</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I45" t="n">
-        <v>345.6294713732969</v>
+        <v>61.66083576940666</v>
       </c>
       <c r="J45" t="n">
-        <v>423.1426943406785</v>
+        <v>428.6498350246932</v>
       </c>
       <c r="K45" t="n">
-        <v>568.3252975342408</v>
+        <v>573.8324382182554</v>
       </c>
       <c r="L45" t="n">
-        <v>771.0686371117474</v>
+        <v>776.5757777957621</v>
       </c>
       <c r="M45" t="n">
-        <v>1010.806042691156</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N45" t="n">
-        <v>1259.229988834146</v>
+        <v>1264.737129518161</v>
       </c>
       <c r="O45" t="n">
-        <v>1772.354425565771</v>
+        <v>1488.38578996188</v>
       </c>
       <c r="P45" t="n">
-        <v>1948.71056952152</v>
+        <v>1664.74193391763</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.48811196706</v>
+        <v>1774.51947636317</v>
       </c>
       <c r="R45" t="n">
-        <v>2099.40039256598</v>
+        <v>1815.43175696209</v>
       </c>
       <c r="S45" t="n">
-        <v>2037.717918784867</v>
+        <v>1753.749283180976</v>
       </c>
       <c r="T45" t="n">
-        <v>1900.100271156067</v>
+        <v>1616.131635552176</v>
       </c>
       <c r="U45" t="n">
-        <v>1715.401644521952</v>
+        <v>1431.433008918062</v>
       </c>
       <c r="V45" t="n">
-        <v>1510.428505661218</v>
+        <v>1226.459870057328</v>
       </c>
       <c r="W45" t="n">
-        <v>1313.907128494436</v>
+        <v>1029.938492890545</v>
       </c>
       <c r="X45" t="n">
-        <v>1150.429782261099</v>
+        <v>866.4611466572084</v>
       </c>
       <c r="Y45" t="n">
-        <v>1010.736893614391</v>
+        <v>726.7682580105007</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>745.9056211325076</v>
+        <v>1089.739958479031</v>
       </c>
       <c r="C46" t="n">
-        <v>745.9056211325076</v>
+        <v>917.7673953579472</v>
       </c>
       <c r="D46" t="n">
-        <v>582.5888482592783</v>
+        <v>754.4506224847179</v>
       </c>
       <c r="E46" t="n">
-        <v>416.3806424121319</v>
+        <v>588.2424166375714</v>
       </c>
       <c r="F46" t="n">
         <v>416.3806424121319</v>
@@ -7806,25 +7806,25 @@
         <v>41.9880078513196</v>
       </c>
       <c r="J46" t="n">
-        <v>82.98836776881161</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K46" t="n">
-        <v>315.5659267689663</v>
+        <v>241.1046668142444</v>
       </c>
       <c r="L46" t="n">
-        <v>799.4359679268033</v>
+        <v>459.7844210060105</v>
       </c>
       <c r="M46" t="n">
-        <v>913.2892390567642</v>
+        <v>979.3860181660905</v>
       </c>
       <c r="N46" t="n">
-        <v>1025.712181833545</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O46" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P46" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q46" t="n">
         <v>2099.40039256598</v>
@@ -7836,22 +7836,22 @@
         <v>1937.538471245867</v>
       </c>
       <c r="T46" t="n">
-        <v>1697.987046763707</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="U46" t="n">
-        <v>1697.987046763707</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="V46" t="n">
-        <v>1416.275579371735</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="W46" t="n">
-        <v>1214.81228599696</v>
+        <v>1748.81259205555</v>
       </c>
       <c r="X46" t="n">
-        <v>972.2483894427655</v>
+        <v>1506.248695501355</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.9056211325076</v>
+        <v>1279.905927191097</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>292.3997740281868</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>292.3997740281867</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>132.059542780027</v>
+        <v>409.8467939698172</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>134.1844806826351</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>162.1848183420073</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>162.1848183420074</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>409.8467939698173</v>
+        <v>369.2660962397115</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>330.1970101846944</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>162.1848183420075</v>
       </c>
       <c r="K18" t="n">
-        <v>268.7055257004979</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9336,10 +9336,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>133.3862404689548</v>
+        <v>120.8123806821517</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>292.3997740281865</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>205.623782254408</v>
+        <v>294.2508614059655</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>185.8790666696963</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>273.9168192091817</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>18.4829548190052</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>133.3862404689552</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9807,16 +9807,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>57.044307946282</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>9.708671421447889</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>282.6911026067388</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>185.8790666696962</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>125.5929039151782</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>191.0306295690045</v>
       </c>
       <c r="M28" t="n">
         <v>409.8467939698172</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>292.3997740281866</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>292.3997740281867</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>67.78409932764666</v>
+        <v>120.8123806821519</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>162.1848183420073</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>292.3997740281867</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>124.2662062262509</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>409.8467939698173</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>265.9215667323134</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>162.1848183420073</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>268.7055257004979</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>284.9620653839656</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>199.5211853773247</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>162.1848183420074</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>292.3997740281867</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>284.9620653839656</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>57.04430794628175</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>292.3997740281868</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.3997740281868</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>185.0878241345332</v>
+        <v>192.3573272579324</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>292.3997740281868</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>292.399774028187</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>153.9221985888311</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>112.3218248738323</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>195.9616279385779</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>239.8863371669031</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>83.67826597440492</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.7167301225565</v>
       </c>
       <c r="H13" t="n">
-        <v>95.64317664434006</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>130.9739822931602</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>329.8293289035415</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>34.94753582436337</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>138.6409555090057</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3347311118176</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>71.71487236445421</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8515169420447</v>
+        <v>67.23265571226102</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6148311530628</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>127.0003052625508</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>113.0668712159867</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>314.6708289337292</v>
       </c>
       <c r="H20" t="n">
         <v>274.8515169420447</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>120.1229858433338</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>158.0536310733602</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>21.52851420271804</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H23" t="n">
         <v>274.8515169420447</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T23" t="n">
         <v>210.1512354641813</v>
@@ -24268,10 +24268,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>323.8628483334277</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>310.6608968692771</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>72.74450234896871</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I25" t="n">
-        <v>72.37695545534142</v>
+        <v>51.71819770014032</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>136.4844058045935</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.3390573303334</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>106.8014929449266</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>186.9829513115552</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.5910157644344</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I28" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.8515169420447</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>172.637012151378</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>324.6722276707451</v>
       </c>
     </row>
     <row r="30">
@@ -24846,16 +24846,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>23.03647907957773</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I31" t="n">
         <v>72.37695545534142</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>37.79653279709518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>66.3250918985529</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.7372692669303</v>
+        <v>31.64955307438957</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.474406809001664</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>28.63351177408794</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H34" t="n">
         <v>134.5550226373062</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>91.86150814735356</v>
       </c>
       <c r="E35" t="n">
-        <v>29.04911845347243</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3390573303334</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.3122649709417</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.104997571370177</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>198.2061996917787</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>396.3396588385027</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>326.8106255366415</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>119.3760808269714</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7167301225565</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5550226373062</v>
+        <v>96.55032000154395</v>
       </c>
       <c r="I40" t="n">
         <v>72.37695545534142</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.104997571370177</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>352.5986534797074</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.3390573303334</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>86.57707508533457</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I43" t="n">
         <v>72.37695545534142</v>
@@ -25839,19 +25839,19 @@
         <v>153.1383045355418</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>274.3190630211076</v>
       </c>
       <c r="V43" t="n">
-        <v>242.1750081845429</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>414.3666733380764</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>102.2413741399937</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H44" t="n">
         <v>274.8515169420447</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.1512354641813</v>
@@ -25927,7 +25927,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U46" t="n">
         <v>277.3347311118176</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>72.65521934818483</v>
+        <v>85.26525939079821</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>364574.9182758838</v>
+        <v>364574.9182758837</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>364574.9182758838</v>
+        <v>364574.9182758837</v>
       </c>
     </row>
     <row r="15">
@@ -26322,22 +26322,22 @@
         <v>430330.381586996</v>
       </c>
       <c r="E2" t="n">
-        <v>252900.1585117437</v>
+        <v>252900.1585117438</v>
       </c>
       <c r="F2" t="n">
-        <v>252900.1585117437</v>
+        <v>252900.1585117439</v>
       </c>
       <c r="G2" t="n">
         <v>252900.1585117438</v>
       </c>
       <c r="H2" t="n">
-        <v>252900.1585117436</v>
+        <v>252900.1585117437</v>
       </c>
       <c r="I2" t="n">
         <v>252900.1585117437</v>
       </c>
       <c r="J2" t="n">
-        <v>252900.1585117436</v>
+        <v>252900.1585117437</v>
       </c>
       <c r="K2" t="n">
         <v>252900.1585117437</v>
@@ -26346,16 +26346,16 @@
         <v>252900.1585117437</v>
       </c>
       <c r="M2" t="n">
-        <v>252900.1585117436</v>
+        <v>252900.1585117437</v>
       </c>
       <c r="N2" t="n">
         <v>252900.1585117437</v>
       </c>
       <c r="O2" t="n">
-        <v>252900.1585117436</v>
+        <v>252900.1585117437</v>
       </c>
       <c r="P2" t="n">
-        <v>252900.1585117437</v>
+        <v>252900.1585117438</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>505977.6206282385</v>
+        <v>505977.6206282387</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130794.7438572531</v>
+        <v>130794.7438572532</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>309806.3511207717</v>
       </c>
       <c r="D4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="E4" t="n">
+        <v>27811.58865116268</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27811.58865116268</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27811.58865116268</v>
+      </c>
+      <c r="H4" t="n">
         <v>27811.58865116267</v>
-      </c>
-      <c r="F4" t="n">
-        <v>27811.58865116267</v>
-      </c>
-      <c r="G4" t="n">
-        <v>27811.58865116267</v>
-      </c>
-      <c r="H4" t="n">
-        <v>27811.58865116266</v>
       </c>
       <c r="I4" t="n">
         <v>27811.58865116268</v>
       </c>
       <c r="J4" t="n">
-        <v>27811.58865116267</v>
+        <v>27811.58865116268</v>
       </c>
       <c r="K4" t="n">
         <v>27811.58865116268</v>
@@ -26450,7 +26450,7 @@
         <v>27811.58865116268</v>
       </c>
       <c r="M4" t="n">
-        <v>27811.58865116267</v>
+        <v>27811.58865116268</v>
       </c>
       <c r="N4" t="n">
         <v>27811.58865116267</v>
@@ -26459,7 +26459,7 @@
         <v>27811.58865116268</v>
       </c>
       <c r="P4" t="n">
-        <v>27811.58865116269</v>
+        <v>27811.58865116268</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38268.01560100908</v>
+        <v>38246.34052691713</v>
       </c>
       <c r="C6" t="n">
-        <v>82338.05904694626</v>
+        <v>82316.38698220839</v>
       </c>
       <c r="D6" t="n">
-        <v>85763.46379969493</v>
+        <v>85741.79173495701</v>
       </c>
       <c r="E6" t="n">
-        <v>-323410.1677765437</v>
+        <v>-324023.2739181992</v>
       </c>
       <c r="F6" t="n">
-        <v>182567.4528516948</v>
+        <v>181954.3467100395</v>
       </c>
       <c r="G6" t="n">
-        <v>182567.4528516949</v>
+        <v>181954.3467100394</v>
       </c>
       <c r="H6" t="n">
-        <v>182567.4528516947</v>
+        <v>181954.3467100394</v>
       </c>
       <c r="I6" t="n">
-        <v>182567.4528516948</v>
+        <v>181954.3467100394</v>
       </c>
       <c r="J6" t="n">
-        <v>182567.4528516947</v>
+        <v>181954.3467100394</v>
       </c>
       <c r="K6" t="n">
-        <v>182567.4528516947</v>
+        <v>181954.3467100393</v>
       </c>
       <c r="L6" t="n">
-        <v>182567.4528516948</v>
+        <v>181954.3467100394</v>
       </c>
       <c r="M6" t="n">
-        <v>51772.70899444161</v>
+        <v>51159.60285278621</v>
       </c>
       <c r="N6" t="n">
-        <v>182567.4528516947</v>
+        <v>181954.3467100394</v>
       </c>
       <c r="O6" t="n">
-        <v>182567.4528516947</v>
+        <v>181954.3467100394</v>
       </c>
       <c r="P6" t="n">
-        <v>182567.4528516947</v>
+        <v>181954.3467100394</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>486.7078459579526</v>
+        <v>486.7078459579525</v>
       </c>
       <c r="F3" t="n">
         <v>486.7078459579526</v>
       </c>
       <c r="G3" t="n">
-        <v>486.7078459579526</v>
+        <v>486.7078459579525</v>
       </c>
       <c r="H3" t="n">
         <v>486.7078459579527</v>
@@ -26810,7 +26810,7 @@
         <v>524.8500981414949</v>
       </c>
       <c r="I4" t="n">
-        <v>524.850098141495</v>
+        <v>524.8500981414949</v>
       </c>
       <c r="J4" t="n">
         <v>524.8500981414949</v>
@@ -26825,7 +26825,7 @@
         <v>524.850098141495</v>
       </c>
       <c r="N4" t="n">
-        <v>524.850098141495</v>
+        <v>524.8500981414949</v>
       </c>
       <c r="O4" t="n">
         <v>524.850098141495</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.8500981414951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.8500981414951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.8500981414951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27642,7 +27642,7 @@
         <v>11.687419793854</v>
       </c>
       <c r="K5" t="n">
-        <v>9.188120483615116</v>
+        <v>9.188120483615119</v>
       </c>
       <c r="L5" t="n">
         <v>5.341568553442613</v>
@@ -27657,7 +27657,7 @@
         <v>2.188868639101635</v>
       </c>
       <c r="P5" t="n">
-        <v>7.531191812490523</v>
+        <v>7.531191812490526</v>
       </c>
       <c r="Q5" t="n">
         <v>13.562754156455</v>
@@ -27739,7 +27739,7 @@
         <v>0.424509749335602</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.477581017613943</v>
+        <v>8.477581017613941</v>
       </c>
       <c r="R6" t="n">
         <v>16.73234637554063</v>
@@ -27800,7 +27800,7 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K7" t="n">
-        <v>10.07631485409216</v>
+        <v>10.07631485409217</v>
       </c>
       <c r="L7" t="n">
         <v>7.985433933586291</v>
@@ -31281,7 +31281,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H5" t="n">
-        <v>2.139688326696483</v>
+        <v>2.139688326696482</v>
       </c>
       <c r="I5" t="n">
         <v>8.05471345929122</v>
@@ -31305,7 +31305,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P5" t="n">
-        <v>30.04416999774078</v>
+        <v>30.04416999774077</v>
       </c>
       <c r="Q5" t="n">
         <v>22.56192044814304</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1117865674089856</v>
       </c>
       <c r="H6" t="n">
         <v>1.079622901028888</v>
@@ -31387,7 +31387,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.26945727136455</v>
+        <v>14.26945727136456</v>
       </c>
       <c r="R6" t="n">
         <v>6.940573018603515</v>
@@ -31439,7 +31439,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8332391336033026</v>
       </c>
       <c r="I7" t="n">
         <v>2.818358950879063</v>
@@ -31466,13 +31466,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.847613148895721</v>
+        <v>7.84761314889572</v>
       </c>
       <c r="R7" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S7" t="n">
-        <v>1.633250939792975</v>
+        <v>1.633250939792974</v>
       </c>
       <c r="T7" t="n">
         <v>0.4004318944719343</v>
@@ -31770,13 +31770,13 @@
         <v>308.7684357829532</v>
       </c>
       <c r="M11" t="n">
-        <v>343.5643781168416</v>
+        <v>343.5643781168415</v>
       </c>
       <c r="N11" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O11" t="n">
-        <v>329.6675239423035</v>
+        <v>329.6675239423034</v>
       </c>
       <c r="P11" t="n">
         <v>281.3636045570292</v>
@@ -31788,7 +31788,7 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S11" t="n">
-        <v>44.5863519186607</v>
+        <v>44.58635191866069</v>
       </c>
       <c r="T11" t="n">
         <v>8.565079781631907</v>
@@ -31840,7 +31840,7 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J12" t="n">
-        <v>98.90729914887037</v>
+        <v>98.90729914887035</v>
       </c>
       <c r="K12" t="n">
         <v>169.0483279682447</v>
@@ -31870,10 +31870,10 @@
         <v>19.44535592105592</v>
       </c>
       <c r="T12" t="n">
-        <v>4.219665192786399</v>
+        <v>4.219665192786398</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06887375178650276</v>
+        <v>0.06887375178650275</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8776698861536849</v>
+        <v>0.8776698861536848</v>
       </c>
       <c r="H13" t="n">
-        <v>7.80328316962095</v>
+        <v>7.803283169620949</v>
       </c>
       <c r="I13" t="n">
         <v>26.39392712178537</v>
@@ -31922,7 +31922,7 @@
         <v>62.05126095106552</v>
       </c>
       <c r="K13" t="n">
-        <v>101.9692831367645</v>
+        <v>101.9692831367644</v>
       </c>
       <c r="L13" t="n">
         <v>130.4855756196124</v>
@@ -31940,7 +31940,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.49288473965085</v>
+        <v>73.49288473965083</v>
       </c>
       <c r="R13" t="n">
         <v>39.4632296083284</v>
@@ -31952,7 +31952,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04787290288111015</v>
+        <v>0.04787290288111014</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32244,13 +32244,13 @@
         <v>308.7684357829532</v>
       </c>
       <c r="M17" t="n">
-        <v>343.5643781168416</v>
+        <v>343.5643781168415</v>
       </c>
       <c r="N17" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O17" t="n">
-        <v>329.6675239423035</v>
+        <v>329.6675239423034</v>
       </c>
       <c r="P17" t="n">
         <v>281.3636045570292</v>
@@ -32262,7 +32262,7 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S17" t="n">
-        <v>44.5863519186607</v>
+        <v>44.58635191866069</v>
       </c>
       <c r="T17" t="n">
         <v>8.565079781631907</v>
@@ -32314,7 +32314,7 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J18" t="n">
-        <v>98.90729914887037</v>
+        <v>98.90729914887035</v>
       </c>
       <c r="K18" t="n">
         <v>169.0483279682447</v>
@@ -32344,10 +32344,10 @@
         <v>19.44535592105592</v>
       </c>
       <c r="T18" t="n">
-        <v>4.219665192786399</v>
+        <v>4.219665192786398</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06887375178650276</v>
+        <v>0.06887375178650275</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8776698861536849</v>
+        <v>0.8776698861536848</v>
       </c>
       <c r="H19" t="n">
-        <v>7.80328316962095</v>
+        <v>7.803283169620949</v>
       </c>
       <c r="I19" t="n">
         <v>26.39392712178537</v>
@@ -32396,7 +32396,7 @@
         <v>62.05126095106552</v>
       </c>
       <c r="K19" t="n">
-        <v>101.9692831367645</v>
+        <v>101.9692831367644</v>
       </c>
       <c r="L19" t="n">
         <v>130.4855756196124</v>
@@ -32414,7 +32414,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.49288473965085</v>
+        <v>73.49288473965083</v>
       </c>
       <c r="R19" t="n">
         <v>39.4632296083284</v>
@@ -32426,7 +32426,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04787290288111015</v>
+        <v>0.04787290288111014</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34146,7 +34146,7 @@
         <v>349.1236089402709</v>
       </c>
       <c r="O41" t="n">
-        <v>329.6675239423045</v>
+        <v>329.6675239423034</v>
       </c>
       <c r="P41" t="n">
         <v>281.3636045570292</v>
@@ -34155,7 +34155,7 @@
         <v>211.2923493475049</v>
       </c>
       <c r="R41" t="n">
-        <v>122.9071828287688</v>
+        <v>122.9071828287697</v>
       </c>
       <c r="S41" t="n">
         <v>44.58635191866069</v>
@@ -35409,10 +35409,10 @@
         <v>40.88447627530874</v>
       </c>
       <c r="J11" t="n">
-        <v>136.645246708881</v>
+        <v>136.6452467088809</v>
       </c>
       <c r="K11" t="n">
-        <v>213.1240953268949</v>
+        <v>213.1240953268948</v>
       </c>
       <c r="L11" t="n">
         <v>270.4563933503302</v>
@@ -35424,7 +35424,7 @@
         <v>311.8439861058249</v>
       </c>
       <c r="O11" t="n">
-        <v>292.2765645862794</v>
+        <v>292.2765645862793</v>
       </c>
       <c r="P11" t="n">
         <v>243.7882427467979</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.8715433516031</v>
+        <v>19.87154335160309</v>
       </c>
       <c r="J12" t="n">
-        <v>78.29618481553703</v>
+        <v>370.6959588437238</v>
       </c>
       <c r="K12" t="n">
         <v>146.6490941349114</v>
@@ -35503,10 +35503,10 @@
         <v>250.9332789323134</v>
       </c>
       <c r="O12" t="n">
-        <v>518.3075118501254</v>
+        <v>225.9077378219386</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1375191472218</v>
+        <v>178.1375191472217</v>
       </c>
       <c r="Q12" t="n">
         <v>110.8864065106465</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623362</v>
       </c>
       <c r="K13" t="n">
-        <v>81.00462868405246</v>
+        <v>81.00462868405245</v>
       </c>
       <c r="L13" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311485</v>
       </c>
       <c r="M13" t="n">
-        <v>247.0628469517048</v>
+        <v>524.8500981414949</v>
       </c>
       <c r="N13" t="n">
-        <v>515.6119854733946</v>
+        <v>247.7430087399892</v>
       </c>
       <c r="O13" t="n">
-        <v>483.0729607969905</v>
+        <v>483.0729607969904</v>
       </c>
       <c r="P13" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372822</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.7758445788043</v>
+        <v>48.87332197486589</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>43.56579167929183</v>
       </c>
       <c r="J15" t="n">
-        <v>78.29618481553703</v>
+        <v>240.4810031575444</v>
       </c>
       <c r="K15" t="n">
         <v>146.6490941349114</v>
@@ -35740,7 +35740,7 @@
         <v>250.9332789323134</v>
       </c>
       <c r="O15" t="n">
-        <v>388.0925561639461</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P15" t="n">
         <v>178.1375191472218</v>
@@ -35807,25 +35807,25 @@
         <v>120.1233096623363</v>
       </c>
       <c r="K16" t="n">
-        <v>330.7850419305394</v>
+        <v>81.00462868405246</v>
       </c>
       <c r="L16" t="n">
         <v>108.5668157239112</v>
       </c>
       <c r="M16" t="n">
-        <v>524.850098141495</v>
+        <v>484.2694004113892</v>
       </c>
       <c r="N16" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O16" t="n">
-        <v>431.7524716855199</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P16" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372824</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.8733219748659</v>
+        <v>201.7758445788043</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>40.88447627530874</v>
       </c>
       <c r="J17" t="n">
-        <v>136.645246708881</v>
+        <v>136.6452467088809</v>
       </c>
       <c r="K17" t="n">
-        <v>213.1240953268949</v>
+        <v>213.1240953268948</v>
       </c>
       <c r="L17" t="n">
         <v>270.4563933503302</v>
@@ -35898,7 +35898,7 @@
         <v>311.8439861058249</v>
       </c>
       <c r="O17" t="n">
-        <v>292.2765645862794</v>
+        <v>292.2765645862793</v>
       </c>
       <c r="P17" t="n">
         <v>243.7882427467979</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.56579167929183</v>
+        <v>43.56579167929182</v>
       </c>
       <c r="J18" t="n">
-        <v>78.29618481553703</v>
+        <v>240.4810031575445</v>
       </c>
       <c r="K18" t="n">
-        <v>415.3546198354093</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L18" t="n">
         <v>204.7912520984916</v>
@@ -35977,16 +35977,16 @@
         <v>250.9332789323134</v>
       </c>
       <c r="O18" t="n">
-        <v>225.9077378219387</v>
+        <v>225.9077378219386</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1375191472218</v>
+        <v>178.1375191472217</v>
       </c>
       <c r="Q18" t="n">
         <v>110.8864065106465</v>
       </c>
       <c r="R18" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623362</v>
       </c>
       <c r="K19" t="n">
-        <v>81.00462868405246</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L19" t="n">
         <v>488.7576173311485</v>
@@ -36056,10 +36056,10 @@
         <v>515.6119854733946</v>
       </c>
       <c r="O19" t="n">
-        <v>234.9417019697804</v>
+        <v>222.3678421829772</v>
       </c>
       <c r="P19" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372822</v>
       </c>
       <c r="Q19" t="n">
         <v>201.7758445788043</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.8715433516031</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J21" t="n">
         <v>78.29618481553705</v>
@@ -36205,7 +36205,7 @@
         <v>146.6490941349114</v>
       </c>
       <c r="L21" t="n">
-        <v>497.1910261266781</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M21" t="n">
         <v>242.1589955347562</v>
@@ -36220,10 +36220,10 @@
         <v>178.1375191472218</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.8864065106466</v>
+        <v>273.0712248526538</v>
       </c>
       <c r="R21" t="n">
-        <v>41.32553595850473</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>330.7850419305394</v>
       </c>
       <c r="L22" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M22" t="n">
         <v>115.0033041716777</v>
       </c>
       <c r="N22" t="n">
-        <v>319.1823103117621</v>
+        <v>407.8093894633196</v>
       </c>
       <c r="O22" t="n">
         <v>483.0729607969905</v>
       </c>
       <c r="P22" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>19.87154335160309</v>
       </c>
       <c r="J24" t="n">
-        <v>78.29618481553702</v>
+        <v>264.1752514852333</v>
       </c>
       <c r="K24" t="n">
         <v>146.6490941349114</v>
@@ -36448,7 +36448,7 @@
         <v>242.1589955347561</v>
       </c>
       <c r="N24" t="n">
-        <v>524.850098141495</v>
+        <v>250.9332789323134</v>
       </c>
       <c r="O24" t="n">
         <v>225.9077378219386</v>
@@ -36460,7 +36460,7 @@
         <v>110.8864065106465</v>
       </c>
       <c r="R24" t="n">
-        <v>59.80849077750992</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>41.41450496716365</v>
       </c>
       <c r="K25" t="n">
-        <v>214.3908691530076</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L25" t="n">
         <v>488.7576173311485</v>
@@ -36527,16 +36527,16 @@
         <v>115.0033041716777</v>
       </c>
       <c r="N25" t="n">
-        <v>515.6119854733946</v>
+        <v>113.558528057354</v>
       </c>
       <c r="O25" t="n">
-        <v>101.5554615008255</v>
+        <v>483.0729607969904</v>
       </c>
       <c r="P25" t="n">
         <v>399.6847408185844</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.7758445788043</v>
+        <v>105.9176299211479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>19.8715433516031</v>
       </c>
       <c r="J27" t="n">
-        <v>88.00485623698492</v>
+        <v>78.29618481553703</v>
       </c>
       <c r="K27" t="n">
         <v>146.6490941349114</v>
@@ -36682,7 +36682,7 @@
         <v>204.7912520984916</v>
       </c>
       <c r="M27" t="n">
-        <v>524.8500981414949</v>
+        <v>242.1589955347561</v>
       </c>
       <c r="N27" t="n">
         <v>250.9332789323134</v>
@@ -36694,10 +36694,10 @@
         <v>178.1375191472218</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.8864065106465</v>
+        <v>296.7654731803428</v>
       </c>
       <c r="R27" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>41.41450496716365</v>
       </c>
       <c r="K28" t="n">
-        <v>206.5975325992307</v>
+        <v>81.00462868405246</v>
       </c>
       <c r="L28" t="n">
-        <v>488.7576173311485</v>
+        <v>299.5974452929157</v>
       </c>
       <c r="M28" t="n">
         <v>524.8500981414949</v>
       </c>
       <c r="N28" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O28" t="n">
-        <v>101.5554615008255</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P28" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372824</v>
       </c>
       <c r="Q28" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>19.8715433516031</v>
       </c>
       <c r="J30" t="n">
-        <v>78.29618481553703</v>
+        <v>370.6959588437236</v>
       </c>
       <c r="K30" t="n">
         <v>146.6490941349114</v>
@@ -36925,7 +36925,7 @@
         <v>250.9332789323134</v>
       </c>
       <c r="O30" t="n">
-        <v>518.3075118501254</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P30" t="n">
         <v>178.1375191472218</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K31" t="n">
-        <v>81.00462868405246</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L31" t="n">
         <v>488.7576173311485</v>
       </c>
       <c r="M31" t="n">
-        <v>182.7874034993244</v>
+        <v>235.8156848538297</v>
       </c>
       <c r="N31" t="n">
         <v>515.6119854733946</v>
       </c>
       <c r="O31" t="n">
-        <v>483.0729607969905</v>
+        <v>101.5554615008255</v>
       </c>
       <c r="P31" t="n">
         <v>83.76938266372824</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.8715433516031</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J33" t="n">
-        <v>78.29618481553703</v>
+        <v>240.4810031575444</v>
       </c>
       <c r="K33" t="n">
         <v>146.6490941349114</v>
@@ -37162,7 +37162,7 @@
         <v>250.9332789323134</v>
       </c>
       <c r="O33" t="n">
-        <v>518.3075118501254</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P33" t="n">
         <v>178.1375191472218</v>
@@ -37171,7 +37171,7 @@
         <v>110.8864065106465</v>
       </c>
       <c r="R33" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K34" t="n">
-        <v>81.00462868405246</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L34" t="n">
-        <v>232.8330219501621</v>
+        <v>488.7576173311485</v>
       </c>
       <c r="M34" t="n">
         <v>524.850098141495</v>
       </c>
       <c r="N34" t="n">
-        <v>113.5585280573541</v>
+        <v>379.4800947896675</v>
       </c>
       <c r="O34" t="n">
-        <v>483.0729607969905</v>
+        <v>101.5554615008255</v>
       </c>
       <c r="P34" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372824</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>43.56579167929183</v>
       </c>
       <c r="J36" t="n">
-        <v>78.29618481553703</v>
+        <v>240.4810031575444</v>
       </c>
       <c r="K36" t="n">
         <v>146.6490941349114</v>
@@ -37396,7 +37396,7 @@
         <v>242.1589955347561</v>
       </c>
       <c r="N36" t="n">
-        <v>519.6388046328112</v>
+        <v>250.9332789323134</v>
       </c>
       <c r="O36" t="n">
         <v>225.9077378219387</v>
@@ -37408,7 +37408,7 @@
         <v>110.8864065106465</v>
       </c>
       <c r="R36" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>41.41450496716365</v>
       </c>
       <c r="K37" t="n">
-        <v>81.00462868405246</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L37" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311485</v>
       </c>
       <c r="M37" t="n">
-        <v>399.9653695556433</v>
+        <v>115.0033041716777</v>
       </c>
       <c r="N37" t="n">
         <v>515.6119854733946</v>
       </c>
       <c r="O37" t="n">
-        <v>483.0729607969905</v>
+        <v>301.0766468781502</v>
       </c>
       <c r="P37" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372824</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.8733219748659</v>
+        <v>201.7758445788043</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.8715433516031</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J39" t="n">
-        <v>78.29618481553703</v>
+        <v>240.4810031575444</v>
       </c>
       <c r="K39" t="n">
         <v>146.6490941349114</v>
@@ -37639,13 +37639,13 @@
         <v>225.9077378219387</v>
       </c>
       <c r="P39" t="n">
-        <v>470.5372931754085</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q39" t="n">
         <v>110.8864065106465</v>
       </c>
       <c r="R39" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>41.41450496716365</v>
       </c>
       <c r="K40" t="n">
-        <v>81.00462868405246</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L40" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311485</v>
       </c>
       <c r="M40" t="n">
-        <v>399.9653695556433</v>
+        <v>115.0033041716777</v>
       </c>
       <c r="N40" t="n">
-        <v>515.6119854733946</v>
+        <v>113.5585280573541</v>
       </c>
       <c r="O40" t="n">
         <v>483.0729607969905</v>
@@ -37721,7 +37721,7 @@
         <v>399.6847408185844</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.8733219748659</v>
+        <v>105.9176299211477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>311.8439861058249</v>
       </c>
       <c r="O41" t="n">
-        <v>292.2765645862804</v>
+        <v>292.2765645862793</v>
       </c>
       <c r="P41" t="n">
         <v>243.7882427467979</v>
@@ -37803,7 +37803,7 @@
         <v>175.1676747429069</v>
       </c>
       <c r="R41" t="n">
-        <v>87.87453293397235</v>
+        <v>87.87453293397324</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>19.87154335160309</v>
       </c>
       <c r="J42" t="n">
-        <v>78.29618481553702</v>
+        <v>370.6959588437238</v>
       </c>
       <c r="K42" t="n">
         <v>146.6490941349114</v>
@@ -37879,7 +37879,7 @@
         <v>178.1375191472217</v>
       </c>
       <c r="Q42" t="n">
-        <v>403.2861805388333</v>
+        <v>110.8864065106465</v>
       </c>
       <c r="R42" t="n">
         <v>41.32553595850472</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.1233096623362</v>
+        <v>41.41450496716365</v>
       </c>
       <c r="K43" t="n">
-        <v>330.7850419305394</v>
+        <v>81.00462868405245</v>
       </c>
       <c r="L43" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311485</v>
       </c>
       <c r="M43" t="n">
-        <v>115.0033041716777</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N43" t="n">
         <v>515.6119854733946</v>
       </c>
       <c r="O43" t="n">
-        <v>286.6432856353587</v>
+        <v>293.9127887587579</v>
       </c>
       <c r="P43" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372822</v>
       </c>
       <c r="Q43" t="n">
-        <v>201.7758445788043</v>
+        <v>48.87332197486589</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>19.87154335160309</v>
       </c>
       <c r="J45" t="n">
-        <v>78.29618481553702</v>
+        <v>370.6959588437238</v>
       </c>
       <c r="K45" t="n">
         <v>146.6490941349114</v>
@@ -38110,7 +38110,7 @@
         <v>250.9332789323134</v>
       </c>
       <c r="O45" t="n">
-        <v>518.3075118501257</v>
+        <v>225.9077378219386</v>
       </c>
       <c r="P45" t="n">
         <v>178.1375191472217</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623362</v>
       </c>
       <c r="K46" t="n">
-        <v>234.9268272728835</v>
+        <v>81.00462868405245</v>
       </c>
       <c r="L46" t="n">
-        <v>488.7576173311485</v>
+        <v>220.8886405977435</v>
       </c>
       <c r="M46" t="n">
-        <v>115.0033041716777</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N46" t="n">
-        <v>113.558528057354</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O46" t="n">
         <v>483.0729607969904</v>
       </c>
       <c r="P46" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372822</v>
       </c>
       <c r="Q46" t="n">
-        <v>201.7758445788043</v>
+        <v>48.87332197486589</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
